--- a/6- VI_Trimestre/06- Plan_De_Calidad/01- Plan_De_Calidad.xlsx
+++ b/6- VI_Trimestre/06- Plan_De_Calidad/01- Plan_De_Calidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Andres_Olaya\Proyecto_Formativo\Kyukeisho_New\Kyukeisho_New\6- VI_Trimestre\06- Plan_De_Calidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BE0C95-0BD4-43B7-8063-9100B122845B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24891C3-1A1B-4C52-AFA8-6A44A95980FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{2DB35F6B-053E-470E-9A2D-D0594BDA3866}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>Fecha Del Informe</t>
   </si>
@@ -289,84 +289,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Capacidad Para Ser Entendido: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">El software esta en capacidad para darse y ser ententido por su facilidad de uso.                                                                                            ----------------------------------------------------------------------------------------------- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Capacidad Para Ser Aprendido: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">El software esta en capacidad de enseñarle al usuario debido a su facilidad de entendimiento.                                                                   ----------------------------------------------------------------------------------------------- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Capacidad Para Ser Operado: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">El software esta en capacidad de ser operado por cualquier persona responsabilidad.                                                                                     ----------------------------------------------------------------------------------------------- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Capacidad De Atracción: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">El software puede resultar atractivo para llamar la atención del usuario, debido a su diseño.                                                                                   </t>
-    </r>
   </si>
   <si>
     <r>
@@ -517,6 +439,153 @@
   </si>
   <si>
     <t>La Norma Iso 2500 Es Una Norma Que Va Directamente A La Calidad Del Software</t>
+  </si>
+  <si>
+    <t>Adecuación</t>
+  </si>
+  <si>
+    <t>Exactitud</t>
+  </si>
+  <si>
+    <t>Seguridad De Acceso</t>
+  </si>
+  <si>
+    <t>Cumplimiento</t>
+  </si>
+  <si>
+    <t>Madurez</t>
+  </si>
+  <si>
+    <t>Tolerancia</t>
+  </si>
+  <si>
+    <t>Capacidad</t>
+  </si>
+  <si>
+    <t>Capacidad E.</t>
+  </si>
+  <si>
+    <t>Capacidad A.</t>
+  </si>
+  <si>
+    <t>Capacidad O.</t>
+  </si>
+  <si>
+    <t>Capacidad Atra.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Capacidad Para Ser Entendido: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">El software esta en capacidad para darse y ser ententido por su facilidad de uso.                                                                                            ----------------------------------------------------------------------------------------------- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Capacidad Para Ser Aprendido: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">El software esta en capacidad de enseñarle al usuario debido a su facilidad de entendimiento.                                                                   ----------------------------------------------------------------------------------------------- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Capacidad Para Ser Operado: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">El software esta en capacidad de ser operado por cualquier persona debidamente responsable.                                                                                     ----------------------------------------------------------------------------------------------- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Capacidad De Atracción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">El software puede resultar atractivo para llamar la atención del usuario, debido a su diseño.                                                                                   </t>
+    </r>
+  </si>
+  <si>
+    <t>Comportamiento</t>
+  </si>
+  <si>
+    <t>Utilización</t>
+  </si>
+  <si>
+    <t>Capacidad Ana.</t>
+  </si>
+  <si>
+    <t>Capacidad Cam.</t>
+  </si>
+  <si>
+    <t>Estabilidad</t>
+  </si>
+  <si>
+    <t>Capacidad Apro</t>
+  </si>
+  <si>
+    <t>Instalabilidad</t>
+  </si>
+  <si>
+    <t>Adaptabilidad</t>
+  </si>
+  <si>
+    <t>Suma Total</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Finalización</t>
+  </si>
+  <si>
+    <t>,&lt;</t>
   </si>
 </sst>
 </file>
@@ -610,9 +679,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -972,109 +1042,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1082,165 +1077,296 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1595,10 +1721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C6BC-348B-4351-8297-F275F28F408D}">
-  <dimension ref="B1:G109"/>
+  <dimension ref="B1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E10"/>
+    <sheetView tabSelected="1" topLeftCell="E91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,827 +1734,1371 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="39.7109375" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="42" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="36"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="36"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="14">
         <v>1803170</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="36"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="14">
         <v>1</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="36"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="36"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="15">
         <v>43500</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="36"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="15">
         <v>44000</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="36"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="36"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="36"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="36"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="36"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="60" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="92" t="s">
+    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="92"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="80"/>
+      <c r="F18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="82"/>
+      <c r="F19" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="110">
+        <v>95</v>
+      </c>
+      <c r="H19" s="48">
+        <v>90</v>
+      </c>
+      <c r="I19" s="48">
+        <v>80</v>
+      </c>
+      <c r="J19" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="57"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="51"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="54"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="52"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="55"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="52"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="55"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="52"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="55"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="52"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="55"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="52"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="55"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="52"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="55"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="52"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="55"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="52"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="55"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="52"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="55"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="52"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="55"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="52"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="55"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="52"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="55"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="52"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="55"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="52"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="55"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="52"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="55"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="52"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="55"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="52"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="55"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="52"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="55"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="52"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="55"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="52"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="55"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="52"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="55"/>
-    </row>
-    <row r="46" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="53"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="56"/>
-    </row>
-    <row r="47" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="54"/>
-      <c r="C47" s="14" t="s">
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="58"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="98">
+        <v>95</v>
+      </c>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="58"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="58"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="58"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="58"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="58"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="58"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="99">
+        <v>95</v>
+      </c>
+      <c r="J31" s="22"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="58"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="22"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="58"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="22"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="58"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="22"/>
+    </row>
+    <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="58"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="58"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="102" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" s="22"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="58"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="98">
+        <v>95</v>
+      </c>
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="58"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="22"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="58"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="22"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="58"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="22"/>
+    </row>
+    <row r="41" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="58"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="22"/>
+    </row>
+    <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="58"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" s="22"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="58"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="99">
+        <v>90</v>
+      </c>
+      <c r="J43" s="22"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="58"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="22"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="58"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="22"/>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="59"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="23"/>
+    </row>
+    <row r="47" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="21"/>
+      <c r="C47" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="57" t="s">
+      <c r="D47" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="63"/>
-      <c r="F47" s="54"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="55"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="55"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="55"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="55"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="55"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="55"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="55"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="55"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="55"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="55"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="55"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="55"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="55"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="55"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="55"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="55"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="55"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="55"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="55"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="55"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="55"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="55"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="55"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="55"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="55"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="55"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="55"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="55"/>
-    </row>
-    <row r="62" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="56"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="56"/>
-    </row>
-    <row r="63" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="54"/>
-      <c r="C63" s="72" t="s">
+      <c r="E47" s="54"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="22"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="48">
+        <v>90</v>
+      </c>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="22"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="22"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+    </row>
+    <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="22"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+    </row>
+    <row r="52" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="22"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="22"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="48">
+        <v>95</v>
+      </c>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="22"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+    </row>
+    <row r="55" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="22"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+    </row>
+    <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="22"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="22"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="48">
+        <v>90</v>
+      </c>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="22"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+    </row>
+    <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="22"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+    </row>
+    <row r="60" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="22"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="22"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="48">
+        <v>85</v>
+      </c>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+    </row>
+    <row r="62" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="23"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+    </row>
+    <row r="63" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="21"/>
+      <c r="C63" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="33"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="22"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="98">
+        <v>95</v>
+      </c>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+    </row>
+    <row r="65" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="22"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="100"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+    </row>
+    <row r="66" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="22"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="22"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="48">
+        <v>90</v>
+      </c>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+    </row>
+    <row r="68" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="22"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+    </row>
+    <row r="69" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="22"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="22"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="48">
+        <v>90</v>
+      </c>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+    </row>
+    <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="22"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+    </row>
+    <row r="72" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="22"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="22"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="48">
+        <v>90</v>
+      </c>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+    </row>
+    <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="23"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+    </row>
+    <row r="75" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D63" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="81"/>
-      <c r="F63" s="54"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="55"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="55"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="55"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="55"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="55"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="55"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="55"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="55"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="55"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="55"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="55"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="55"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="55"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="55"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="55"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="55"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="55"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="55"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="55"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="82"/>
-      <c r="F73" s="55"/>
-    </row>
-    <row r="74" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="56"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="56"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" s="78" t="s">
+      <c r="D75" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="31"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="48">
+        <v>90</v>
+      </c>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+    </row>
+    <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="31"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+    </row>
+    <row r="78" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="31"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="31"/>
+      <c r="C79" s="52"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="48">
+        <v>80</v>
+      </c>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+    </row>
+    <row r="80" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="32"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+    </row>
+    <row r="81" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="42"/>
+      <c r="C81" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="70"/>
-      <c r="C76" s="79"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="70"/>
-      <c r="C77" s="79"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="70"/>
-      <c r="C78" s="79"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="70"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
-    </row>
-    <row r="80" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="71"/>
-      <c r="C80" s="80"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-    </row>
-    <row r="81" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="89"/>
-      <c r="C81" s="14" t="s">
+      <c r="D81" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="43"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="48">
+        <v>80</v>
+      </c>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+    </row>
+    <row r="83" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="43"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+    </row>
+    <row r="84" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="43"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="43"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="48">
+        <v>95</v>
+      </c>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+    </row>
+    <row r="86" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="43"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+    </row>
+    <row r="87" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="43"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="43"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="48">
+        <v>90</v>
+      </c>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+    </row>
+    <row r="89" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="43"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+    </row>
+    <row r="90" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="43"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="43"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="48">
+        <v>85</v>
+      </c>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="43"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+    </row>
+    <row r="93" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="44"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
+    </row>
+    <row r="94" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="E81" s="54"/>
-      <c r="F81" s="54"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="90"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="75"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="90"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="75"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="90"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="75"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="90"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="55"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="90"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="90"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="75"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="55"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="90"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="75"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="55"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="90"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="75"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="55"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="90"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="75"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="55"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="90"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="75"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="90"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="75"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="55"/>
-    </row>
-    <row r="93" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="91"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="77"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-    </row>
-    <row r="94" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="86"/>
-      <c r="C94" s="86"/>
-      <c r="D94" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="E94" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="F94" s="54"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="87"/>
-      <c r="C95" s="87"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="55"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="87"/>
-      <c r="C96" s="87"/>
-      <c r="D96" s="61"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="55"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="87"/>
-      <c r="C97" s="87"/>
-      <c r="D97" s="61"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="55"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="87"/>
-      <c r="C98" s="87"/>
-      <c r="D98" s="61"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="55"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="87"/>
-      <c r="C99" s="87"/>
-      <c r="D99" s="61"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="55"/>
-    </row>
-    <row r="100" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="88"/>
-      <c r="C100" s="88"/>
-      <c r="D100" s="62"/>
-      <c r="E100" s="68"/>
-      <c r="F100" s="56"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E101" s="85"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E102" s="85"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E103" s="84"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E104" s="84"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E105" s="84"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E106" s="84"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E107" s="84"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E108" s="84"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E109" s="84"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="J94" s="21"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="48">
+        <v>80</v>
+      </c>
+      <c r="J95" s="22"/>
+    </row>
+    <row r="96" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="50"/>
+      <c r="J96" s="22"/>
+    </row>
+    <row r="97" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="J97" s="22"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="48">
+        <v>95</v>
+      </c>
+      <c r="J98" s="22"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="49"/>
+      <c r="J99" s="22"/>
+    </row>
+    <row r="100" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="23"/>
+    </row>
+    <row r="101" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E101" s="17"/>
+      <c r="G101" t="s">
+        <v>62</v>
+      </c>
+      <c r="H101" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="I101" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="J101" s="109" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E102" s="17"/>
+      <c r="H102" s="108">
+        <f>SUM(H19,H48,H53,H57,H61,H67,H64,H70,H73,H76,H79,H82,H85,H88,H91)</f>
+        <v>1335</v>
+      </c>
+      <c r="I102" s="108">
+        <f>SUM(I19,I25,I31,I37,I43,I95,I98)</f>
+        <v>630</v>
+      </c>
+      <c r="J102" s="113">
+        <f>H104+I104/100</f>
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E103" s="16"/>
+      <c r="H103" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="I103" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="J103" s="114"/>
+    </row>
+    <row r="104" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E104" s="16"/>
+      <c r="H104" s="108">
+        <f>AVERAGE(H102/15)</f>
+        <v>89</v>
+      </c>
+      <c r="I104" s="103">
+        <f>AVERAGE(I102/7)</f>
+        <v>90</v>
+      </c>
+      <c r="J104" s="115"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E105" s="16"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E106" s="16"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E107" s="16"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E108" s="16"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E109" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="87">
+    <mergeCell ref="J102:J104"/>
+    <mergeCell ref="G94:G100"/>
+    <mergeCell ref="H94:H100"/>
+    <mergeCell ref="I81:I93"/>
+    <mergeCell ref="J81:J93"/>
+    <mergeCell ref="J94:J100"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="G81:G93"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H91:H93"/>
+    <mergeCell ref="G75:G80"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I75:I80"/>
+    <mergeCell ref="J75:J80"/>
+    <mergeCell ref="G63:G74"/>
+    <mergeCell ref="I63:I74"/>
+    <mergeCell ref="J63:J74"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="G47:G62"/>
+    <mergeCell ref="I47:I62"/>
+    <mergeCell ref="J47:J62"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G24:G46"/>
+    <mergeCell ref="H24:H46"/>
+    <mergeCell ref="J24:J46"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="I37:I41"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="F24:F46"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B47:B62"/>
+    <mergeCell ref="C47:C62"/>
+    <mergeCell ref="B63:B74"/>
+    <mergeCell ref="E24:E46"/>
+    <mergeCell ref="D24:D46"/>
+    <mergeCell ref="B24:B46"/>
+    <mergeCell ref="C24:C46"/>
+    <mergeCell ref="F47:F62"/>
+    <mergeCell ref="C63:C74"/>
+    <mergeCell ref="D63:D74"/>
+    <mergeCell ref="D75:D80"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="E47:E62"/>
+    <mergeCell ref="D47:D62"/>
     <mergeCell ref="B94:B100"/>
     <mergeCell ref="C94:C100"/>
     <mergeCell ref="F94:F100"/>
@@ -2445,34 +3115,6 @@
     <mergeCell ref="D81:D93"/>
     <mergeCell ref="B81:B93"/>
     <mergeCell ref="E81:E93"/>
-    <mergeCell ref="F47:F62"/>
-    <mergeCell ref="C63:C74"/>
-    <mergeCell ref="D63:D74"/>
-    <mergeCell ref="D75:D80"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="E47:E62"/>
-    <mergeCell ref="D47:D62"/>
-    <mergeCell ref="B47:B62"/>
-    <mergeCell ref="C47:C62"/>
-    <mergeCell ref="B63:B74"/>
-    <mergeCell ref="E24:E46"/>
-    <mergeCell ref="D24:D46"/>
-    <mergeCell ref="B24:B46"/>
-    <mergeCell ref="C24:C46"/>
-    <mergeCell ref="F24:F46"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/6- VI_Trimestre/06- Plan_De_Calidad/01- Plan_De_Calidad.xlsx
+++ b/6- VI_Trimestre/06- Plan_De_Calidad/01- Plan_De_Calidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Andres_Olaya\Proyecto_Formativo\Kyukeisho_New\Kyukeisho_New\6- VI_Trimestre\06- Plan_De_Calidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24891C3-1A1B-4C52-AFA8-6A44A95980FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188C396A-DB0E-4A93-93D4-FB146671B379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{2DB35F6B-053E-470E-9A2D-D0594BDA3866}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>Fecha Del Informe</t>
   </si>
@@ -583,9 +583,6 @@
   </si>
   <si>
     <t>Finalización</t>
-  </si>
-  <si>
-    <t>,&lt;</t>
   </si>
 </sst>
 </file>
@@ -1083,246 +1080,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1345,6 +1107,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1354,14 +1152,213 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1723,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C6BC-348B-4351-8297-F275F28F408D}">
   <dimension ref="B1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94:F100"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,18 +1741,18 @@
     <row r="2" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="63"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="12"/>
       <c r="G3" s="11"/>
     </row>
@@ -1766,8 +1763,8 @@
       <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="12"/>
       <c r="G4" s="11"/>
     </row>
@@ -1778,8 +1775,8 @@
       <c r="C5" s="14">
         <v>1803170</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="12"/>
       <c r="G5" s="11"/>
     </row>
@@ -1790,8 +1787,8 @@
       <c r="C6" s="14">
         <v>1</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="12"/>
       <c r="G6" s="11"/>
     </row>
@@ -1802,8 +1799,8 @@
       <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="12"/>
       <c r="G7" s="11"/>
     </row>
@@ -1814,8 +1811,8 @@
       <c r="C8" s="15">
         <v>43500</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="12"/>
       <c r="G8" s="11"/>
     </row>
@@ -1826,8 +1823,8 @@
       <c r="C9" s="15">
         <v>44000</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="12"/>
       <c r="G9" s="11"/>
     </row>
@@ -1838,8 +1835,8 @@
       <c r="C10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="12"/>
       <c r="G10" s="11"/>
     </row>
@@ -1847,11 +1844,11 @@
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="12"/>
       <c r="G11" s="11"/>
     </row>
@@ -1859,11 +1856,11 @@
       <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="12"/>
       <c r="G12" s="11"/>
     </row>
@@ -1871,11 +1868,11 @@
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="12"/>
       <c r="G13" s="11"/>
     </row>
@@ -1888,10 +1885,10 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="49" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="1"/>
@@ -1899,14 +1896,14 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="94" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="92"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
@@ -1915,20 +1912,20 @@
       <c r="C18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="80"/>
+      <c r="E18" s="69"/>
       <c r="F18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="93" t="s">
+      <c r="G18" s="19" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="96" t="s">
+      <c r="I18" s="20" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -1936,1080 +1933,1077 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="87" t="s">
+      <c r="C19" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="87" t="s">
+      <c r="E19" s="71"/>
+      <c r="F19" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="110">
+      <c r="G19" s="43">
+        <v>90</v>
+      </c>
+      <c r="H19" s="37">
+        <v>90</v>
+      </c>
+      <c r="I19" s="37">
+        <v>80</v>
+      </c>
+      <c r="J19" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="81"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="34"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="82"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="40">
         <v>95</v>
       </c>
-      <c r="H19" s="48">
+      <c r="J25" s="35"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="82"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="82"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="82"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="35"/>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="82"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="35"/>
+    </row>
+    <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="82"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="82"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="42">
+        <v>95</v>
+      </c>
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="82"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="82"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="35"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="82"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="82"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="82"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" s="35"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="82"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="40">
+        <v>95</v>
+      </c>
+      <c r="J37" s="35"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="82"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="35"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="82"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="35"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="82"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="82"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="82"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" s="35"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="82"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="42">
         <v>90</v>
       </c>
-      <c r="I19" s="48">
+      <c r="J43" s="35"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="82"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="82"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="35"/>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="83"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="36"/>
+    </row>
+    <row r="47" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="34"/>
+      <c r="C47" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="93"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="35"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="37">
+        <v>90</v>
+      </c>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="35"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="35"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+    </row>
+    <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="35"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+    </row>
+    <row r="52" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="35"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="35"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="37">
+        <v>90</v>
+      </c>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="35"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+    </row>
+    <row r="55" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="35"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+    </row>
+    <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="35"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="35"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="37">
+        <v>90</v>
+      </c>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="35"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+    </row>
+    <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="35"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="94"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+    </row>
+    <row r="60" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="35"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="35"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="37">
+        <v>85</v>
+      </c>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+    </row>
+    <row r="62" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="36"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+    </row>
+    <row r="63" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="34"/>
+      <c r="C63" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="110"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="35"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="111"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="40">
+        <v>90</v>
+      </c>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+    </row>
+    <row r="65" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="35"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="88"/>
+      <c r="E65" s="111"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+    </row>
+    <row r="66" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="35"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="111"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="35"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="111"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="37">
+        <v>90</v>
+      </c>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+    </row>
+    <row r="68" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="35"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="88"/>
+      <c r="E68" s="111"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+    </row>
+    <row r="69" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="35"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="88"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="35"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="88"/>
+      <c r="E70" s="111"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="37">
+        <v>90</v>
+      </c>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+    </row>
+    <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="35"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="88"/>
+      <c r="E71" s="111"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+    </row>
+    <row r="72" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="35"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="88"/>
+      <c r="E72" s="111"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="35"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="88"/>
+      <c r="E73" s="111"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="37">
+        <v>90</v>
+      </c>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+    </row>
+    <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="36"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="112"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+    </row>
+    <row r="75" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="108"/>
+      <c r="C76" s="91"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="37">
+        <v>85</v>
+      </c>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+    </row>
+    <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="108"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+    </row>
+    <row r="78" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="108"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="108"/>
+      <c r="C79" s="91"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="37">
         <v>80</v>
       </c>
-      <c r="J19" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-    </row>
-    <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="57"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="97" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="21"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="58"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="98">
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+    </row>
+    <row r="80" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="109"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+    </row>
+    <row r="81" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="113"/>
+      <c r="C81" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="114"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="88"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="37">
+        <v>80</v>
+      </c>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+    </row>
+    <row r="83" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="114"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+    </row>
+    <row r="84" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="114"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="88"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="114"/>
+      <c r="C85" s="79"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="37">
+        <v>90</v>
+      </c>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+    </row>
+    <row r="86" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="114"/>
+      <c r="C86" s="79"/>
+      <c r="D86" s="88"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+    </row>
+    <row r="87" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="114"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="88"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="114"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="88"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="37">
+        <v>85</v>
+      </c>
+      <c r="I88" s="35"/>
+      <c r="J88" s="35"/>
+    </row>
+    <row r="89" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="114"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="88"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="35"/>
+    </row>
+    <row r="90" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="114"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I90" s="35"/>
+      <c r="J90" s="35"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="114"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="37">
+        <v>80</v>
+      </c>
+      <c r="I91" s="35"/>
+      <c r="J91" s="35"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="114"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="88"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="35"/>
+    </row>
+    <row r="93" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="115"/>
+      <c r="C93" s="80"/>
+      <c r="D93" s="89"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+    </row>
+    <row r="94" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="96"/>
+      <c r="C94" s="96"/>
+      <c r="D94" s="104" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J94" s="34"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="97"/>
+      <c r="C95" s="97"/>
+      <c r="D95" s="105"/>
+      <c r="E95" s="102"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="37">
+        <v>80</v>
+      </c>
+      <c r="J95" s="35"/>
+    </row>
+    <row r="96" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="97"/>
+      <c r="C96" s="97"/>
+      <c r="D96" s="105"/>
+      <c r="E96" s="102"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="38"/>
+      <c r="J96" s="35"/>
+    </row>
+    <row r="97" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="97"/>
+      <c r="C97" s="97"/>
+      <c r="D97" s="105"/>
+      <c r="E97" s="102"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J97" s="35"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="97"/>
+      <c r="C98" s="97"/>
+      <c r="D98" s="105"/>
+      <c r="E98" s="102"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="37">
         <v>95</v>
       </c>
-      <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="58"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="22"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="58"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="22"/>
-    </row>
-    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="58"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="22"/>
-    </row>
-    <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="58"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="101" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="22"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="58"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="99">
-        <v>95</v>
-      </c>
-      <c r="J31" s="22"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="58"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="22"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="58"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="22"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="58"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="22"/>
-    </row>
-    <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="58"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="22"/>
-    </row>
-    <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="58"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="102" t="s">
-        <v>41</v>
-      </c>
-      <c r="J36" s="22"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="58"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="98">
-        <v>95</v>
-      </c>
-      <c r="J37" s="22"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="58"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="22"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="58"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="22"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="58"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="22"/>
-    </row>
-    <row r="41" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="58"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="22"/>
-    </row>
-    <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="58"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="J42" s="22"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="58"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="99">
-        <v>90</v>
-      </c>
-      <c r="J43" s="22"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="58"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="22"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="58"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="22"/>
-    </row>
-    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="59"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="23"/>
-    </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="21"/>
-      <c r="C47" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="22"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="48">
-        <v>90</v>
-      </c>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="22"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="22"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-    </row>
-    <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="22"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-    </row>
-    <row r="52" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="22"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="22"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="48">
-        <v>95</v>
-      </c>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="22"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-    </row>
-    <row r="55" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="22"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-    </row>
-    <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="22"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="22"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="48">
-        <v>90</v>
-      </c>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="22"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-    </row>
-    <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="22"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-    </row>
-    <row r="60" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="22"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="22"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="48">
-        <v>85</v>
-      </c>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-    </row>
-    <row r="62" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="23"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-    </row>
-    <row r="63" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="21"/>
-      <c r="C63" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="33"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="106" t="s">
-        <v>46</v>
-      </c>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="22"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="98">
-        <v>95</v>
-      </c>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-    </row>
-    <row r="65" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="22"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="100"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-    </row>
-    <row r="66" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="22"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="106" t="s">
-        <v>47</v>
-      </c>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="22"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="48">
-        <v>90</v>
-      </c>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-    </row>
-    <row r="68" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="22"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-    </row>
-    <row r="69" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="22"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="22"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="48">
-        <v>90</v>
-      </c>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-    </row>
-    <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="22"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-    </row>
-    <row r="72" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="22"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="22"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="48">
-        <v>90</v>
-      </c>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-    </row>
-    <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="23"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-    </row>
-    <row r="75" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D75" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="31"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="48">
-        <v>90</v>
-      </c>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-    </row>
-    <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="31"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-    </row>
-    <row r="78" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="31"/>
-      <c r="C78" s="52"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="31"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="48">
-        <v>80</v>
-      </c>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-    </row>
-    <row r="80" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="32"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="50"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23"/>
-    </row>
-    <row r="81" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="42"/>
-      <c r="C81" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D81" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="107" t="s">
-        <v>53</v>
-      </c>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="43"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="48">
-        <v>80</v>
-      </c>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
-    </row>
-    <row r="83" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="43"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-    </row>
-    <row r="84" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="43"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B85" s="43"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="48">
-        <v>95</v>
-      </c>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
-    </row>
-    <row r="86" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="43"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
-    </row>
-    <row r="87" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="43"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="I87" s="22"/>
-      <c r="J87" s="22"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="43"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="48">
-        <v>90</v>
-      </c>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
-    </row>
-    <row r="89" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="43"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="50"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
-    </row>
-    <row r="90" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="43"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="107" t="s">
-        <v>56</v>
-      </c>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B91" s="43"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="48">
-        <v>85</v>
-      </c>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B92" s="43"/>
-      <c r="C92" s="37"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="22"/>
-    </row>
-    <row r="93" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="44"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="50"/>
-      <c r="I93" s="23"/>
-      <c r="J93" s="23"/>
-    </row>
-    <row r="94" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E94" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="106" t="s">
-        <v>58</v>
-      </c>
-      <c r="J94" s="21"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="48">
-        <v>80</v>
-      </c>
-      <c r="J95" s="22"/>
-    </row>
-    <row r="96" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="50"/>
-      <c r="J96" s="22"/>
-    </row>
-    <row r="97" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="J97" s="22"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="48">
-        <v>95</v>
-      </c>
-      <c r="J98" s="22"/>
+      <c r="J98" s="35"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="49"/>
-      <c r="J99" s="22"/>
+      <c r="B99" s="97"/>
+      <c r="C99" s="97"/>
+      <c r="D99" s="105"/>
+      <c r="E99" s="102"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="35"/>
     </row>
     <row r="100" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="50"/>
-      <c r="J100" s="23"/>
+      <c r="B100" s="98"/>
+      <c r="C100" s="98"/>
+      <c r="D100" s="106"/>
+      <c r="E100" s="103"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="38"/>
+      <c r="J100" s="36"/>
     </row>
     <row r="101" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E101" s="17"/>
-      <c r="G101" t="s">
-        <v>62</v>
-      </c>
-      <c r="H101" s="109" t="s">
+      <c r="H101" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I101" s="109" t="s">
+      <c r="I101" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="J101" s="109" t="s">
+      <c r="J101" s="30" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="102" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E102" s="17"/>
-      <c r="H102" s="108">
+      <c r="H102" s="29">
         <f>SUM(H19,H48,H53,H57,H61,H67,H64,H70,H73,H76,H79,H82,H85,H88,H91)</f>
-        <v>1335</v>
-      </c>
-      <c r="I102" s="108">
+        <v>1305</v>
+      </c>
+      <c r="I102" s="29">
         <f>SUM(I19,I25,I31,I37,I43,I95,I98)</f>
         <v>630</v>
       </c>
-      <c r="J102" s="113">
+      <c r="J102" s="31">
         <f>H104+I104/100</f>
-        <v>89.9</v>
+        <v>87.9</v>
       </c>
     </row>
     <row r="103" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E103" s="16"/>
-      <c r="H103" s="109" t="s">
+      <c r="H103" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I103" s="109" t="s">
+      <c r="I103" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="J103" s="114"/>
+      <c r="J103" s="32"/>
     </row>
     <row r="104" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E104" s="16"/>
-      <c r="H104" s="108">
+      <c r="H104" s="29">
         <f>AVERAGE(H102/15)</f>
-        <v>89</v>
-      </c>
-      <c r="I104" s="103">
+        <v>87</v>
+      </c>
+      <c r="I104" s="24">
         <f>AVERAGE(I102/7)</f>
         <v>90</v>
       </c>
-      <c r="J104" s="115"/>
+      <c r="J104" s="33"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E105" s="16"/>
@@ -3028,77 +3022,6 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="J102:J104"/>
-    <mergeCell ref="G94:G100"/>
-    <mergeCell ref="H94:H100"/>
-    <mergeCell ref="I81:I93"/>
-    <mergeCell ref="J81:J93"/>
-    <mergeCell ref="J94:J100"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="I98:I100"/>
-    <mergeCell ref="G81:G93"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="H91:H93"/>
-    <mergeCell ref="G75:G80"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I75:I80"/>
-    <mergeCell ref="J75:J80"/>
-    <mergeCell ref="G63:G74"/>
-    <mergeCell ref="I63:I74"/>
-    <mergeCell ref="J63:J74"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="G47:G62"/>
-    <mergeCell ref="I47:I62"/>
-    <mergeCell ref="J47:J62"/>
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="G24:G46"/>
-    <mergeCell ref="H24:H46"/>
-    <mergeCell ref="J24:J46"/>
-    <mergeCell ref="I25:I29"/>
-    <mergeCell ref="I31:I35"/>
-    <mergeCell ref="I37:I41"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="F24:F46"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B47:B62"/>
-    <mergeCell ref="C47:C62"/>
-    <mergeCell ref="B63:B74"/>
-    <mergeCell ref="E24:E46"/>
-    <mergeCell ref="D24:D46"/>
-    <mergeCell ref="B24:B46"/>
-    <mergeCell ref="C24:C46"/>
-    <mergeCell ref="F47:F62"/>
-    <mergeCell ref="C63:C74"/>
-    <mergeCell ref="D63:D74"/>
-    <mergeCell ref="D75:D80"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="E47:E62"/>
-    <mergeCell ref="D47:D62"/>
     <mergeCell ref="B94:B100"/>
     <mergeCell ref="C94:C100"/>
     <mergeCell ref="F94:F100"/>
@@ -3115,6 +3038,77 @@
     <mergeCell ref="D81:D93"/>
     <mergeCell ref="B81:B93"/>
     <mergeCell ref="E81:E93"/>
+    <mergeCell ref="F47:F62"/>
+    <mergeCell ref="C63:C74"/>
+    <mergeCell ref="D63:D74"/>
+    <mergeCell ref="D75:D80"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="E47:E62"/>
+    <mergeCell ref="D47:D62"/>
+    <mergeCell ref="B47:B62"/>
+    <mergeCell ref="C47:C62"/>
+    <mergeCell ref="B63:B74"/>
+    <mergeCell ref="E24:E46"/>
+    <mergeCell ref="D24:D46"/>
+    <mergeCell ref="B24:B46"/>
+    <mergeCell ref="C24:C46"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="F24:F46"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="G24:G46"/>
+    <mergeCell ref="H24:H46"/>
+    <mergeCell ref="J24:J46"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="I37:I41"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="G47:G62"/>
+    <mergeCell ref="I47:I62"/>
+    <mergeCell ref="J47:J62"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G63:G74"/>
+    <mergeCell ref="I63:I74"/>
+    <mergeCell ref="J63:J74"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="G75:G80"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I75:I80"/>
+    <mergeCell ref="J75:J80"/>
+    <mergeCell ref="J102:J104"/>
+    <mergeCell ref="G94:G100"/>
+    <mergeCell ref="H94:H100"/>
+    <mergeCell ref="I81:I93"/>
+    <mergeCell ref="J81:J93"/>
+    <mergeCell ref="J94:J100"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="G81:G93"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H91:H93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
